--- a/Kouponapp/fixtures/data7.xlsx
+++ b/Kouponapp/fixtures/data7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yaneekumsudsang/Senior-Project-65114540147/Kouponapp/fixtures/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paul/Github/senior-projects-68/Koupon/Kouponapp/fixtures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13CD4E67-4FF2-304C-98DD-62B0BE9A8A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E44CC015-E0D8-C747-B0C2-5E3B5E83A233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27320" yWindow="500" windowWidth="27320" windowHeight="13900" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Member" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="132">
   <si>
     <t>id</t>
   </si>
@@ -302,21 +302,6 @@
   </si>
   <si>
     <t>Fruit Frenzy</t>
-  </si>
-  <si>
-    <t>Smoothie Paradise</t>
-  </si>
-  <si>
-    <t>Green Juice Bar</t>
-  </si>
-  <si>
-    <t>Berry Blast Smoothies</t>
-  </si>
-  <si>
-    <t>Tropical Twist</t>
-  </si>
-  <si>
-    <t>Juicy Bar</t>
   </si>
   <si>
     <t>Mango Tango Smoothies</t>
@@ -774,9 +759,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="187" formatCode="d/m/yyyy"/>
-  </numFmts>
   <fonts count="14">
     <font>
       <sz val="10"/>
@@ -1023,7 +1005,7 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="187" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1061,8 +1043,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
@@ -2193,7 +2175,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" customHeight="1"/>
@@ -2530,10 +2512,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:C11"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" customHeight="1"/>
@@ -2585,7 +2567,7 @@
         <v>63</v>
       </c>
       <c r="C4" s="8">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="13.75" customHeight="1">
@@ -2596,7 +2578,7 @@
         <v>64</v>
       </c>
       <c r="C5" s="8">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="13.75" customHeight="1">
@@ -2607,61 +2589,6 @@
         <v>65</v>
       </c>
       <c r="C6" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="13.75" customHeight="1">
-      <c r="A7" s="7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="13.75" customHeight="1">
-      <c r="A8" s="7">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" s="8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="13.75" customHeight="1">
-      <c r="A9" s="7">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="13.75" customHeight="1">
-      <c r="A10" s="7">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="13.75" customHeight="1">
-      <c r="A11" s="7">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="8">
         <v>10</v>
       </c>
     </row>
@@ -2678,14 +2605,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L11"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.5" style="1" customWidth="1"/>
-    <col min="2" max="3" width="17" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17" style="1" customWidth="1"/>
     <col min="4" max="7" width="12.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="26.6640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="20.83203125" style="1" customWidth="1"/>
@@ -2700,37 +2628,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="H1" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="L1" s="13" t="s">
         <v>76</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="16" customHeight="1">
@@ -2741,10 +2669,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E2" s="14">
         <v>3</v>
@@ -2756,10 +2684,10 @@
         <v>0</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="J2" s="16">
         <v>45303</v>
@@ -2779,10 +2707,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E3" s="14">
         <v>5</v>
@@ -2794,10 +2722,10 @@
         <v>1</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="J3" s="16">
         <v>45334</v>
@@ -2817,10 +2745,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E4" s="14">
         <v>10</v>
@@ -2832,10 +2760,10 @@
         <v>1</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="J4" s="16">
         <v>45363</v>
@@ -2855,10 +2783,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E5" s="14">
         <v>10</v>
@@ -2870,10 +2798,10 @@
         <v>1</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="J5" s="16">
         <v>45394</v>
@@ -2893,10 +2821,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E6" s="14">
         <v>5</v>
@@ -2908,10 +2836,10 @@
         <v>0</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="J6" s="16">
         <v>45424</v>
@@ -2931,10 +2859,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E7" s="14">
         <v>3</v>
@@ -2946,10 +2874,10 @@
         <v>0</v>
       </c>
       <c r="H7" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="I7" s="11" t="s">
         <v>84</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>89</v>
       </c>
       <c r="J7" s="16">
         <v>45455</v>
@@ -2969,10 +2897,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E8" s="14">
         <v>5</v>
@@ -2984,10 +2912,10 @@
         <v>0</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="J8" s="16">
         <v>45485</v>
@@ -3007,10 +2935,10 @@
         <v>2</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E9" s="14">
         <v>10</v>
@@ -3022,10 +2950,10 @@
         <v>1</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="J9" s="16">
         <v>45516</v>
@@ -3045,10 +2973,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E10" s="14">
         <v>5</v>
@@ -3060,10 +2988,10 @@
         <v>0</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="J10" s="16">
         <v>45547</v>
@@ -3083,10 +3011,10 @@
         <v>2</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E11" s="14">
         <v>5</v>
@@ -3098,10 +3026,10 @@
         <v>0</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="J11" s="16">
         <v>45577</v>
@@ -3162,7 +3090,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="F1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -3187,37 +3115,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="H1" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="J1" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="F1" s="20" t="s">
+      <c r="K1" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="L1" s="20" t="s">
         <v>105</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="K1" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="L1" s="20" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1">
@@ -3237,16 +3165,16 @@
         <v>1</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="H2" s="30" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="I2" s="28" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="J2" s="23"/>
       <c r="K2" s="23">
@@ -3271,16 +3199,16 @@
         <v>2</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H3" s="28" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="I3" s="28" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="J3" s="23"/>
       <c r="K3" s="23">
@@ -3305,16 +3233,16 @@
         <v>3</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="J4" s="23"/>
       <c r="K4" s="23">
@@ -3339,16 +3267,16 @@
         <v>4</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H5" s="28" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="I5" s="28" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="J5" s="23"/>
       <c r="K5" s="23">
@@ -3373,16 +3301,16 @@
         <v>5</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="I6" s="28" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="J6" s="23"/>
       <c r="K6" s="23">
@@ -3407,16 +3335,16 @@
         <v>1</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="I7" s="28" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="J7" s="23"/>
       <c r="K7" s="23">
@@ -3441,16 +3369,16 @@
         <v>2</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="I8" s="28" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="J8" s="23"/>
       <c r="K8" s="23">
@@ -3475,16 +3403,16 @@
         <v>3</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="J9" s="23"/>
       <c r="K9" s="23">
@@ -3509,16 +3437,16 @@
         <v>4</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="I10" s="28" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="J10" s="23"/>
       <c r="K10" s="23">
@@ -3543,16 +3471,16 @@
         <v>5</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="I11" s="28" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="J11" s="23"/>
       <c r="K11" s="23">
